--- a/Data Exploration/Datasets/B18135 AGE BY DISABILITY STATUS BY HEALTH INSURANCE COVERAGE STATUS.xlsx
+++ b/Data Exploration/Datasets/B18135 AGE BY DISABILITY STATUS BY HEALTH INSURANCE COVERAGE STATUS.xlsx
@@ -3,24 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B5AC07-91A7-4ACE-8A67-0506C5FF20E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8A3C70-E2F8-4F8C-AA1D-1662F6BCD5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Data!#REF!,Data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>AGE BY DISABILITY STATUS BY HEALTH INSURANCE COVERAGE STATUS</t>
   </si>
@@ -177,13 +189,58 @@
   </si>
   <si>
     <t>With public health coverage</t>
+  </si>
+  <si>
+    <t>Disabled 19 to 64 years with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled 19 to 64 years with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled 19 to 64 years with no health insurance coverage</t>
+  </si>
+  <si>
+    <t>Disabled under 19 years with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled under 19 years with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Disabled under 19 years without health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled under 19 years without health insurance coverage</t>
+  </si>
+  <si>
+    <t>Disabled 19 to 64 years without health insurance coverage</t>
+  </si>
+  <si>
+    <t>Disabled 65 years and over with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Disabled 65 years and over without health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled 65 years and over with health insurance coverage</t>
+  </si>
+  <si>
+    <t>Nondisabled 65 years and over without health insurance coverage</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +257,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -263,23 +339,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +758,9 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -679,359 +770,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" ht="89.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="51.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="51.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="140.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,11 +1141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB12" sqref="AB12"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,107 +1257,107 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>3106492</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>770491</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>31501</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>30818</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <v>14973</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="6">
         <v>20251</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>683</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="6">
         <v>738990</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="6">
         <v>718383</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="6">
         <v>504957</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="6">
         <v>256139</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="6">
         <v>20607</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="6">
         <v>1821025</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="6">
         <v>174860</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="6">
         <v>165495</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="6">
         <v>86544</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="6">
         <v>99721</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="6">
         <v>9365</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="6">
         <v>1646165</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="6">
         <v>1532865</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="6">
         <v>1368276</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="6">
         <v>214282</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="6">
         <v>113300</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="6">
         <v>514976</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="6">
         <v>159517</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="6">
         <v>158954</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="6">
         <v>102066</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="6">
         <v>157679</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="6">
         <v>563</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="6">
         <v>355459</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="6">
         <v>354344</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="6">
         <v>243018</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="6">
         <v>344317</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="6">
         <v>1115</v>
       </c>
     </row>
@@ -1284,288 +1375,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB7169D-E9AA-4C0E-ABF5-9B39B2A5EFBC}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFC247B-E697-4DE9-A425-60C1258E101A}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="10">
-        <v>3106492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="10">
-        <v>770491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="10">
-        <v>31501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="1" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="15">
         <v>30818</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10">
-        <v>14973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="10">
-        <v>20251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="C2">
+        <v>97.831814863020213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="15">
         <v>683</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="10">
-        <v>738990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="C3">
+        <v>2.1681851369797784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15">
         <v>718383</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="10">
-        <v>504957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="10">
-        <v>256139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="C4">
+        <v>97.211464295863266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="15">
         <v>20607</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1821025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10">
-        <v>174860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="C5">
+        <v>2.7885357041367271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="15">
         <v>165495</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="10">
-        <v>86544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10">
-        <v>99721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="C6">
+        <v>94.644286858057882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="15">
         <v>9365</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1646165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="C7">
+        <v>5.3557131419421244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="15">
         <v>1532865</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1368276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="10">
-        <v>214282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="C8">
+        <v>93.117336354496658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="15">
         <v>113300</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="10">
-        <v>514976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10">
-        <v>159517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="C9">
+        <v>6.882663645503337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="15">
         <v>158954</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="10">
-        <v>102066</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="10">
-        <v>157679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="C10">
+        <v>99.647059561049929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="15">
         <v>563</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10">
-        <v>355459</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="10">
+      <c r="C11">
+        <v>0.35294043895008054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="15">
         <v>354344</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="10">
-        <v>243018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="10">
-        <v>344317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="C12">
+        <v>99.686321066564645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15">
         <v>1115</v>
+      </c>
+      <c r="C13">
+        <v>0.31367893343536102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>